--- a/ValueSet-HIV.C.DE24.xlsx
+++ b/ValueSet-HIV.C.DE24.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T05:12:03+00:00</t>
+    <t>2024-07-01T12:40:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.C.DE24.xlsx
+++ b/ValueSet-HIV.C.DE24.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T12:40:16+00:00</t>
+    <t>2024-07-01T13:58:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.C.DE24.xlsx
+++ b/ValueSet-HIV.C.DE24.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T13:58:30+00:00</t>
+    <t>2024-07-01T14:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.C.DE24.xlsx
+++ b/ValueSet-HIV.C.DE24.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T14:01:13+00:00</t>
+    <t>2024-07-01T19:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.C.DE24.xlsx
+++ b/ValueSet-HIV.C.DE24.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T19:15:43+00:00</t>
+    <t>2024-07-01T19:19:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.C.DE24.xlsx
+++ b/ValueSet-HIV.C.DE24.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T19:19:54+00:00</t>
+    <t>2024-07-01T19:37:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.C.DE24.xlsx
+++ b/ValueSet-HIV.C.DE24.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T19:37:36+00:00</t>
+    <t>2024-07-01T19:48:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.C.DE24.xlsx
+++ b/ValueSet-HIV.C.DE24.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T19:48:05+00:00</t>
+    <t>2024-08-05T14:13:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.C.DE24.xlsx
+++ b/ValueSet-HIV.C.DE24.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-05T14:13:53+00:00</t>
+    <t>2024-08-06T17:04:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
